--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_034.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_034.xlsx
@@ -1883,7 +1883,7 @@
         <v>40</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>112</v>
@@ -2113,7 +2113,7 @@
         <v>60</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>112</v>
@@ -2136,7 +2136,7 @@
         <v>121</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>112</v>
@@ -2159,7 +2159,7 @@
         <v>62</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>112</v>
@@ -2205,7 +2205,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>112</v>
@@ -2251,7 +2251,7 @@
         <v>70</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>112</v>
@@ -2297,7 +2297,7 @@
         <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>112</v>
@@ -2320,7 +2320,7 @@
         <v>76</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>112</v>
